--- a/biology/Médecine/Francesco_Zuliani/Francesco_Zuliani.xlsx
+++ b/biology/Médecine/Francesco_Zuliani/Francesco_Zuliani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Zuliani (né en 1743 et mort le 10 février 1806) était un médecin italien de la seconde moitié du XVIIIe et du début du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frère du juriste Giuseppe Andrea Zuliani, Francesco Zuliani commença par l'étude de la philosophie, puis de la jurisprudence. Mais enfin la médecine, pour laquelle il avait un goût décidé, l'emporta.
 Il alla ensuite pratiquer à Milan et à Brescia en même temps qu'il se lia avec les grandes célébrités médicales d'alors, Johann Peter Frank (1745-1821), Samuel Auguste Tissot (1728-1797), Giovanni Battista Borsieri de Kanilfeld (1725-1785), Antonio Scarpa (1752-1832), Leopoldo Marc'Antonio Caldani (1725-1813).
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Zuliani a laissé les ouvrages suivants :
 De apoplexia prœsertim nervea commentarius, Brescia, 1789, in-8 ;
